--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -27071,58 +27071,115 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">给同级的各个查询条件分组，起到括号的作用。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>op_group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的为同一个值的查询条件，是同一组的查询条件。
+默认值：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>parent_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构成整个查询条件树</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图查询条件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>当qc</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">_type </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>== 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
+      <t>_type == 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>的时候，使用本</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1的时候，使用本字段</t>
+      <t>的时候，使用本 1的时候，使用本字段</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -27167,99 +27224,18 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> or</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">给同级的各个查询条件分组，起到括号的作用。
+      <t xml:space="preserve"> or
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>op_group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的为同一个值的查询条件，是同一组的查询条件。
-默认值：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>parent_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>构成整个查询条件树</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视图列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视图查询条件</t>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认值：1</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -27268,7 +27244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27400,30 +27376,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -27558,7 +27510,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="547">
+  <cellXfs count="549">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -29173,6 +29125,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -29517,14 +29475,14 @@
     <col min="5" max="16384" width="9" style="500"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="500" customFormat="1" ht="36" customHeight="1">
+    <row r="1" spans="2:4" ht="36" customHeight="1">
       <c r="B1" s="502" t="s">
         <v>2670</v>
       </c>
       <c r="C1" s="502"/>
       <c r="D1" s="502"/>
     </row>
-    <row r="2" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="2" spans="2:4" ht="24.95" customHeight="1">
       <c r="B2" s="499" t="s">
         <v>25</v>
       </c>
@@ -29535,7 +29493,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="3" spans="2:4" ht="24.95" customHeight="1">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -29546,7 +29504,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="2:4" ht="24.95" customHeight="1">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -29557,7 +29515,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="2:4" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -29568,7 +29526,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="6" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="2:4" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -29579,7 +29537,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="2:4" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -29590,7 +29548,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="8" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="2:4" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -29601,7 +29559,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="2:4" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -29612,7 +29570,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="2:4" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -29623,7 +29581,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="11" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="2:4" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -29634,7 +29592,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="12" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="2:4" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -29645,7 +29603,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="13" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="2:4" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -29656,7 +29614,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="14" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="2:4" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -29667,7 +29625,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="2:4" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -29678,7 +29636,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="16" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="2:4" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -29689,7 +29647,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="2:4" ht="24.95" customHeight="1">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -29700,7 +29658,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="2:4" ht="24.95" customHeight="1">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -29711,7 +29669,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="2:4" ht="24.95" customHeight="1">
       <c r="B19" s="4">
         <v>17</v>
       </c>
@@ -29722,7 +29680,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="20" spans="2:4" ht="24.95" customHeight="1">
       <c r="B20" s="4">
         <v>18</v>
       </c>
@@ -29733,7 +29691,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="21" spans="2:4" ht="24.95" customHeight="1">
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -29744,7 +29702,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="2:4" ht="24.95" customHeight="1">
       <c r="B22" s="4">
         <v>20</v>
       </c>
@@ -29755,7 +29713,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="23" spans="2:4" ht="24.95" customHeight="1">
       <c r="B23" s="4">
         <v>21</v>
       </c>
@@ -29766,7 +29724,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="24" spans="2:4" ht="24.95" customHeight="1">
       <c r="B24" s="4">
         <v>22</v>
       </c>
@@ -29777,7 +29735,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="25" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="25" spans="2:4" ht="24.95" customHeight="1">
       <c r="B25" s="4">
         <v>23</v>
       </c>
@@ -29788,7 +29746,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="26" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="26" spans="2:4" ht="24.95" customHeight="1">
       <c r="B26" s="4">
         <v>24</v>
       </c>
@@ -29799,7 +29757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="27" spans="2:4" ht="24.95" customHeight="1">
       <c r="B27" s="4">
         <v>25</v>
       </c>
@@ -29810,7 +29768,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="28" spans="2:4" ht="24.95" customHeight="1">
       <c r="B28" s="4">
         <v>26</v>
       </c>
@@ -29821,7 +29779,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="29" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="29" spans="2:4" ht="24.95" customHeight="1">
       <c r="B29" s="4">
         <v>27</v>
       </c>
@@ -29832,7 +29790,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="30" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="30" spans="2:4" ht="24.95" customHeight="1">
       <c r="B30" s="4">
         <v>28</v>
       </c>
@@ -29843,7 +29801,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="31" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="31" spans="2:4" ht="24.95" customHeight="1">
       <c r="B31" s="4">
         <v>29</v>
       </c>
@@ -29854,7 +29812,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="32" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="32" spans="2:4" ht="24.95" customHeight="1">
       <c r="B32" s="4">
         <v>30</v>
       </c>
@@ -29865,7 +29823,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="33" spans="2:4" ht="24.95" customHeight="1">
       <c r="B33" s="4">
         <v>31</v>
       </c>
@@ -29876,7 +29834,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="34" spans="2:4" ht="24.95" customHeight="1">
       <c r="B34" s="4">
         <v>32</v>
       </c>
@@ -29887,7 +29845,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="35" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="35" spans="2:4" ht="24.95" customHeight="1">
       <c r="B35" s="4">
         <v>33</v>
       </c>
@@ -29898,7 +29856,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="36" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="36" spans="2:4" ht="24.95" customHeight="1">
       <c r="B36" s="4">
         <v>34</v>
       </c>
@@ -29906,10 +29864,10 @@
         <v>2616</v>
       </c>
       <c r="D36" s="498" t="s">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="24.95" customHeight="1">
       <c r="B37" s="4">
         <v>35</v>
       </c>
@@ -29917,10 +29875,10 @@
         <v>2671</v>
       </c>
       <c r="D37" s="498" t="s">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="24.95" customHeight="1">
       <c r="B38" s="4">
         <v>36</v>
       </c>
@@ -29931,7 +29889,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="39" spans="2:4" ht="24.95" customHeight="1">
       <c r="B39" s="4">
         <v>37</v>
       </c>
@@ -29942,7 +29900,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="40" spans="2:4" ht="24.95" customHeight="1">
       <c r="B40" s="4">
         <v>38</v>
       </c>
@@ -29953,7 +29911,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="41" spans="2:4" ht="24.95" customHeight="1">
       <c r="B41" s="4">
         <v>39</v>
       </c>
@@ -29964,7 +29922,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="42" spans="2:4" ht="24.95" customHeight="1">
       <c r="B42" s="4">
         <v>40</v>
       </c>
@@ -29975,7 +29933,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="43" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="43" spans="2:4" ht="24.95" customHeight="1">
       <c r="B43" s="4">
         <v>41</v>
       </c>
@@ -29986,7 +29944,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="44" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="44" spans="2:4" ht="24.95" customHeight="1">
       <c r="B44" s="4">
         <v>42</v>
       </c>
@@ -29997,7 +29955,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="45" spans="2:4" ht="24.95" customHeight="1">
       <c r="B45" s="4">
         <v>43</v>
       </c>
@@ -30008,7 +29966,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="46" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="46" spans="2:4" ht="24.95" customHeight="1">
       <c r="B46" s="4">
         <v>44</v>
       </c>
@@ -30019,7 +29977,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="47" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="47" spans="2:4" ht="24.95" customHeight="1">
       <c r="B47" s="4">
         <v>45</v>
       </c>
@@ -30030,7 +29988,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="48" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="48" spans="2:4" ht="24.95" customHeight="1">
       <c r="B48" s="4">
         <v>46</v>
       </c>
@@ -30041,7 +29999,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="49" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="49" spans="2:4" ht="24.95" customHeight="1">
       <c r="B49" s="4">
         <v>47</v>
       </c>
@@ -30052,7 +30010,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="50" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="50" spans="2:4" ht="24.95" customHeight="1">
       <c r="B50" s="4">
         <v>48</v>
       </c>
@@ -30063,7 +30021,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="51" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="51" spans="2:4" ht="24.95" customHeight="1">
       <c r="B51" s="4">
         <v>49</v>
       </c>
@@ -30074,7 +30032,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="52" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="52" spans="2:4" ht="24.95" customHeight="1">
       <c r="B52" s="4">
         <v>50</v>
       </c>
@@ -30085,7 +30043,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="53" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="53" spans="2:4" ht="24.95" customHeight="1">
       <c r="B53" s="4">
         <v>51</v>
       </c>
@@ -30096,7 +30054,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="54" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="54" spans="2:4" ht="24.95" customHeight="1">
       <c r="B54" s="4">
         <v>52</v>
       </c>
@@ -30107,7 +30065,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="55" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="55" spans="2:4" ht="24.95" customHeight="1">
       <c r="B55" s="4">
         <v>53</v>
       </c>
@@ -30118,7 +30076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="56" spans="2:4" ht="24.95" customHeight="1">
       <c r="B56" s="4">
         <v>54</v>
       </c>
@@ -30129,7 +30087,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="57" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="57" spans="2:4" ht="24.95" customHeight="1">
       <c r="B57" s="4">
         <v>55</v>
       </c>
@@ -30140,7 +30098,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="58" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="58" spans="2:4" ht="24.95" customHeight="1">
       <c r="B58" s="4">
         <v>56</v>
       </c>
@@ -30151,7 +30109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="59" spans="2:4" ht="24.95" customHeight="1">
       <c r="B59" s="4">
         <v>57</v>
       </c>
@@ -30162,7 +30120,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="60" spans="2:4" ht="24.95" customHeight="1">
       <c r="B60" s="4">
         <v>58</v>
       </c>
@@ -30173,7 +30131,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="61" spans="2:4" ht="24.95" customHeight="1">
       <c r="B61" s="4">
         <v>59</v>
       </c>
@@ -30184,7 +30142,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="62" spans="2:4" ht="24.95" customHeight="1">
       <c r="B62" s="4">
         <v>60</v>
       </c>
@@ -30195,7 +30153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="63" spans="2:4" ht="24.95" customHeight="1">
       <c r="B63" s="4">
         <v>61</v>
       </c>
@@ -30206,7 +30164,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="64" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="64" spans="2:4" ht="24.95" customHeight="1">
       <c r="B64" s="4">
         <v>62</v>
       </c>
@@ -30217,7 +30175,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="65" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="65" spans="2:4" ht="24.95" customHeight="1">
       <c r="B65" s="4">
         <v>63</v>
       </c>
@@ -30228,7 +30186,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="66" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="66" spans="2:4" ht="24.95" customHeight="1">
       <c r="B66" s="4">
         <v>64</v>
       </c>
@@ -30239,7 +30197,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="67" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="67" spans="2:4" ht="24.95" customHeight="1">
       <c r="B67" s="4">
         <v>65</v>
       </c>
@@ -30250,7 +30208,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="68" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="68" spans="2:4" ht="24.95" customHeight="1">
       <c r="B68" s="4">
         <v>66</v>
       </c>
@@ -30261,7 +30219,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="69" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="69" spans="2:4" ht="24.95" customHeight="1">
       <c r="B69" s="4">
         <v>67</v>
       </c>
@@ -30272,7 +30230,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="70" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="70" spans="2:4" ht="24.95" customHeight="1">
       <c r="B70" s="4">
         <v>68</v>
       </c>
@@ -30283,7 +30241,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="71" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="71" spans="2:4" ht="24.95" customHeight="1">
       <c r="B71" s="4">
         <v>69</v>
       </c>
@@ -30294,7 +30252,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="72" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="72" spans="2:4" ht="24.95" customHeight="1">
       <c r="B72" s="4">
         <v>70</v>
       </c>
@@ -30305,7 +30263,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="73" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="73" spans="2:4" ht="24.95" customHeight="1">
       <c r="B73" s="4">
         <v>71</v>
       </c>
@@ -30316,7 +30274,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="74" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="74" spans="2:4" ht="24.95" customHeight="1">
       <c r="B74" s="4">
         <v>72</v>
       </c>
@@ -30327,7 +30285,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="75" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="75" spans="2:4" ht="24.95" customHeight="1">
       <c r="B75" s="4">
         <v>73</v>
       </c>
@@ -30338,7 +30296,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="76" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="76" spans="2:4" ht="24.95" customHeight="1">
       <c r="B76" s="4">
         <v>74</v>
       </c>
@@ -30349,7 +30307,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="77" spans="2:4" ht="24.95" customHeight="1">
       <c r="B77" s="4">
         <v>75</v>
       </c>
@@ -30360,7 +30318,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="78" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="78" spans="2:4" ht="24.95" customHeight="1">
       <c r="B78" s="4">
         <v>76</v>
       </c>
@@ -30371,7 +30329,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="79" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="79" spans="2:4" ht="24.95" customHeight="1">
       <c r="B79" s="4">
         <v>77</v>
       </c>
@@ -30382,7 +30340,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="80" spans="2:4" ht="24.95" customHeight="1">
       <c r="B80" s="4">
         <v>78</v>
       </c>
@@ -30393,7 +30351,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="81" spans="2:4" ht="24.95" customHeight="1">
       <c r="B81" s="4">
         <v>79</v>
       </c>
@@ -30404,7 +30362,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="82" spans="2:4" ht="24.95" customHeight="1">
       <c r="B82" s="4">
         <v>80</v>
       </c>
@@ -30415,7 +30373,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="83" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="83" spans="2:4" ht="24.95" customHeight="1">
       <c r="B83" s="4">
         <v>81</v>
       </c>
@@ -30426,7 +30384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="84" spans="2:4" ht="24.95" customHeight="1">
       <c r="B84" s="4">
         <v>82</v>
       </c>
@@ -30437,7 +30395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="85" spans="2:4" ht="24.95" customHeight="1">
       <c r="B85" s="4">
         <v>83</v>
       </c>
@@ -30448,7 +30406,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="86" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="86" spans="2:4" ht="24.95" customHeight="1">
       <c r="B86" s="4">
         <v>84</v>
       </c>
@@ -30459,7 +30417,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="87" spans="2:4" ht="24.95" customHeight="1">
       <c r="B87" s="4">
         <v>85</v>
       </c>
@@ -30470,7 +30428,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="88" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="88" spans="2:4" ht="24.95" customHeight="1">
       <c r="B88" s="4">
         <v>86</v>
       </c>
@@ -30481,7 +30439,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="89" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="89" spans="2:4" ht="24.95" customHeight="1">
       <c r="B89" s="4">
         <v>87</v>
       </c>
@@ -30492,7 +30450,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="90" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="90" spans="2:4" ht="24.95" customHeight="1">
       <c r="B90" s="4">
         <v>88</v>
       </c>
@@ -30503,7 +30461,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="91" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="91" spans="2:4" ht="24.95" customHeight="1">
       <c r="B91" s="4">
         <v>89</v>
       </c>
@@ -30514,7 +30472,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="92" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="92" spans="2:4" ht="24.95" customHeight="1">
       <c r="B92" s="4">
         <v>90</v>
       </c>
@@ -30525,7 +30483,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="93" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="93" spans="2:4" ht="24.95" customHeight="1">
       <c r="B93" s="4">
         <v>91</v>
       </c>
@@ -30536,7 +30494,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="94" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="94" spans="2:4" ht="24.95" customHeight="1">
       <c r="B94" s="4">
         <v>92</v>
       </c>
@@ -30547,7 +30505,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="95" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="95" spans="2:4" ht="24.95" customHeight="1">
       <c r="B95" s="4">
         <v>93</v>
       </c>
@@ -30558,7 +30516,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="96" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="96" spans="2:4" ht="24.95" customHeight="1">
       <c r="B96" s="4">
         <v>94</v>
       </c>
@@ -30569,7 +30527,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="97" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="97" spans="2:4" ht="24.95" customHeight="1">
       <c r="B97" s="4">
         <v>95</v>
       </c>
@@ -30580,7 +30538,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="98" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="98" spans="2:4" ht="24.95" customHeight="1">
       <c r="B98" s="4">
         <v>96</v>
       </c>
@@ -30591,7 +30549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="99" spans="2:4" ht="24.95" customHeight="1">
       <c r="B99" s="4">
         <v>97</v>
       </c>
@@ -30602,7 +30560,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="100" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="100" spans="2:4" ht="24.95" customHeight="1">
       <c r="B100" s="4">
         <v>98</v>
       </c>
@@ -30613,7 +30571,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="101" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="101" spans="2:4" ht="24.95" customHeight="1">
       <c r="B101" s="4">
         <v>99</v>
       </c>
@@ -30624,7 +30582,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="102" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="102" spans="2:4" ht="24.95" customHeight="1">
       <c r="B102" s="4">
         <v>100</v>
       </c>
@@ -30635,7 +30593,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="103" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="103" spans="2:4" ht="24.95" customHeight="1">
       <c r="B103" s="4">
         <v>101</v>
       </c>
@@ -30646,7 +30604,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="104" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="104" spans="2:4" ht="24.95" customHeight="1">
       <c r="B104" s="4">
         <v>102</v>
       </c>
@@ -30657,7 +30615,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="105" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="105" spans="2:4" ht="24.95" customHeight="1">
       <c r="B105" s="4">
         <v>103</v>
       </c>
@@ -30668,7 +30626,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="106" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="106" spans="2:4" ht="24.95" customHeight="1">
       <c r="B106" s="4">
         <v>104</v>
       </c>
@@ -30679,7 +30637,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="107" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="107" spans="2:4" ht="24.95" customHeight="1">
       <c r="B107" s="4">
         <v>105</v>
       </c>
@@ -30690,7 +30648,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="108" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="108" spans="2:4" ht="24.95" customHeight="1">
       <c r="B108" s="4">
         <v>106</v>
       </c>
@@ -30701,7 +30659,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="109" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="109" spans="2:4" ht="24.95" customHeight="1">
       <c r="B109" s="4">
         <v>107</v>
       </c>
@@ -30712,7 +30670,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="110" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="110" spans="2:4" ht="24.95" customHeight="1">
       <c r="B110" s="4">
         <v>108</v>
       </c>
@@ -30723,7 +30681,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="111" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="111" spans="2:4" ht="24.95" customHeight="1">
       <c r="B111" s="4">
         <v>109</v>
       </c>
@@ -30734,7 +30692,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="112" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="112" spans="2:4" ht="24.95" customHeight="1">
       <c r="B112" s="4">
         <v>110</v>
       </c>
@@ -30745,7 +30703,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="113" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="113" spans="2:4" ht="24.95" customHeight="1">
       <c r="B113" s="4">
         <v>111</v>
       </c>
@@ -30756,7 +30714,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="114" spans="2:4" s="500" customFormat="1" ht="24.95" customHeight="1">
+    <row r="114" spans="2:4" ht="24.95" customHeight="1">
       <c r="B114" s="4">
         <v>112</v>
       </c>
@@ -47393,12 +47351,12 @@
       <c r="G12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="525" t="s">
-        <v>2696</v>
-      </c>
-      <c r="I12" s="509"/>
-      <c r="J12" s="509"/>
-      <c r="K12" s="509"/>
+      <c r="H12" s="538" t="s">
+        <v>2700</v>
+      </c>
+      <c r="I12" s="539"/>
+      <c r="J12" s="539"/>
+      <c r="K12" s="539"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -47424,7 +47382,7 @@
       <c r="J13" s="509"/>
       <c r="K13" s="509"/>
     </row>
-    <row r="14" spans="2:11" ht="30" customHeight="1">
+    <row r="14" spans="2:11" ht="81" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -47439,10 +47397,10 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>19</v>
+        <v>354</v>
       </c>
       <c r="H14" s="525" t="s">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="I14" s="509"/>
       <c r="J14" s="509"/>
@@ -47466,7 +47424,7 @@
         <v>354</v>
       </c>
       <c r="H15" s="507" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="I15" s="526"/>
       <c r="J15" s="526"/>
@@ -47490,7 +47448,7 @@
         <v>97</v>
       </c>
       <c r="H16" s="507" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="I16" s="526"/>
       <c r="J16" s="526"/>
@@ -47522,11 +47480,6 @@
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -47534,6 +47487,11 @@
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -49487,12 +49445,12 @@
       <c r="G12" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="H12" s="538" t="s">
+      <c r="H12" s="540" t="s">
         <v>1484</v>
       </c>
-      <c r="I12" s="539"/>
-      <c r="J12" s="539"/>
-      <c r="K12" s="540"/>
+      <c r="I12" s="541"/>
+      <c r="J12" s="541"/>
+      <c r="K12" s="542"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="C14" s="503" t="s">
@@ -51936,7 +51894,7 @@
       <c r="G17" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="H17" s="541" t="s">
+      <c r="H17" s="543" t="s">
         <v>779</v>
       </c>
       <c r="I17" s="523"/>
@@ -52542,9 +52500,9 @@
       <c r="H19" s="520" t="s">
         <v>423</v>
       </c>
-      <c r="I19" s="542"/>
-      <c r="J19" s="542"/>
-      <c r="K19" s="543"/>
+      <c r="I19" s="544"/>
+      <c r="J19" s="544"/>
+      <c r="K19" s="545"/>
     </row>
     <row r="20" spans="2:11" s="115" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -55620,7 +55578,7 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="544" t="s">
+      <c r="H7" s="546" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="509"/>
@@ -55928,7 +55886,7 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="544" t="s">
+      <c r="H7" s="546" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="509"/>
@@ -63901,12 +63859,12 @@
       <c r="G12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="545" t="s">
+      <c r="H12" s="547" t="s">
         <v>2179</v>
       </c>
-      <c r="I12" s="539"/>
-      <c r="J12" s="539"/>
-      <c r="K12" s="540"/>
+      <c r="I12" s="541"/>
+      <c r="J12" s="541"/>
+      <c r="K12" s="542"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="C14" s="503" t="s">
@@ -64097,7 +64055,7 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="544" t="s">
+      <c r="H7" s="546" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="509"/>
@@ -64405,7 +64363,7 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="544" t="s">
+      <c r="H7" s="546" t="s">
         <v>191</v>
       </c>
       <c r="I7" s="509"/>
@@ -69929,7 +69887,7 @@
       <c r="G16" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="H16" s="546" t="s">
+      <c r="H16" s="548" t="s">
         <v>1374</v>
       </c>
       <c r="I16" s="505"/>
